--- a/biology/Zoologie/Aspidochirotida/Aspidochirotida.xlsx
+++ b/biology/Zoologie/Aspidochirotida/Aspidochirotida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Aspidochirotida étaient un ordre d'holothuries (concombres de mer) qui a été aboli en 2017 par Miller, Kerr, Paulay, Reich, Wilson, Carvajal &amp; Rouse[1]. Ses familles ont été reclassées sous les ordres des Holothuriida, des Persiculida et des Synallactida.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Aspidochirotida étaient un ordre d'holothuries (concombres de mer) qui a été aboli en 2017 par Miller, Kerr, Paulay, Reich, Wilson, Carvajal &amp; Rouse. Ses familles ont été reclassées sous les ordres des Holothuriida, des Persiculida et des Synallactida.  
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet ordre comptait des holothuries vagiles de forme légèrement allongée (en saucisse ou en fuseau), munies de dix à trente tentacules buccaux relativement simples, peltés. Le tégument est plus ou moins épais et musculeux. Ils n'ont pas de muscles rétracteurs. Leurs podia forment un tapis bien défini sur la face inférieure (« trivium »). Ils possèdent des ossicules de forme tabulaire, et des ampoules tentaculaires. La respiration s'effectue par un arbre respiratoire bien développé, qui débouche sur le cloaque. Ils sont généralement munis de tubes de Cuvier. Ils ne sont pas équipés de muscles rétracteurs du pharynx, et leur couronne calcaire n'a pas de prolongements postérieurs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet ordre comptait des holothuries vagiles de forme légèrement allongée (en saucisse ou en fuseau), munies de dix à trente tentacules buccaux relativement simples, peltés. Le tégument est plus ou moins épais et musculeux. Ils n'ont pas de muscles rétracteurs. Leurs podia forment un tapis bien défini sur la face inférieure (« trivium »). Ils possèdent des ossicules de forme tabulaire, et des ampoules tentaculaires. La respiration s'effectue par un arbre respiratoire bien développé, qui débouche sur le cloaque. Ils sont généralement munis de tubes de Cuvier. Ils ne sont pas équipés de muscles rétracteurs du pharynx, et leur couronne calcaire n'a pas de prolongements postérieurs.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon le World Register of Marine Species                               (2 décembre 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon le World Register of Marine Species                               (2 décembre 2013) :
 Holothuriidae  Burmeister, 1837 -- 5 genres, 200 espèces
 Mesothuriidae  Smirnov, 2012 -- 2 genres, 32 espèces
 Stichopodidae  Haeckel, 1896 -- 10 genres, 34 espèces
